--- a/manual.xlsx
+++ b/manual.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>en valores tener en cuenta que el valor por defecto que usa el sistema es el primero que se carga al configurar el sistema</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>o sea ecomerce y escri</t>
+  </si>
+  <si>
+    <t>la orden se carga como estado NUEVA por lo que hay que tener en estados un estado NUEVA definida</t>
   </si>
 </sst>
 </file>
@@ -409,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,6 +511,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/manual.xlsx
+++ b/manual.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>en valores tener en cuenta que el valor por defecto que usa el sistema es el primero que se carga al configurar el sistema</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>la orden se carga como estado NUEVA por lo que hay que tener en estados un estado NUEVA definida</t>
+  </si>
+  <si>
+    <t>las imágenes deben tener una resolucion de 72 x 72</t>
   </si>
 </sst>
 </file>
@@ -147,6 +150,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>169420</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3314700" y="4638675"/>
+          <a:ext cx="2247900" cy="3150745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,8 +579,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/manual.xlsx
+++ b/manual.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>en valores tener en cuenta que el valor por defecto que usa el sistema es el primero que se carga al configurar el sistema</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>las imágenes deben tener una resolucion de 72 x 72</t>
+  </si>
+  <si>
+    <t>los clientes que se generan por el Ecommerce estan desde el numero 100001</t>
+  </si>
+  <si>
+    <t>OJO en eccomerce configura con el primer registro</t>
   </si>
 </sst>
 </file>
@@ -475,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O26"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,6 +551,9 @@
       <c r="A15" t="s">
         <v>15</v>
       </c>
+      <c r="G15" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -582,6 +591,11 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
